--- a/excel_files/membrane_inventory.xlsx
+++ b/excel_files/membrane_inventory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Product_Name</t>
   </si>
@@ -46,6 +46,9 @@
     <t>SCHLUTER-QUADEC</t>
   </si>
   <si>
+    <t>SCHLUTER-DITRA-XL</t>
+  </si>
+  <si>
     <t>39"X39"</t>
   </si>
   <si>
@@ -58,6 +61,12 @@
     <t>16"X16" OR 24"X16"</t>
   </si>
   <si>
+    <t>3' 2-5/8" X 41' 10-3/4" = 134.5FT</t>
+  </si>
+  <si>
+    <t>175FT</t>
+  </si>
+  <si>
     <t>SLOPED SHOWER TRAY</t>
   </si>
   <si>
@@ -77,6 +86,9 @@
   </si>
   <si>
     <t>THERMOSTAT</t>
+  </si>
+  <si>
+    <t>MEMBRANE</t>
   </si>
 </sst>
 </file>
@@ -434,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,10 +471,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -473,10 +485,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -487,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -501,10 +513,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -520,7 +532,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -531,7 +543,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -542,10 +554,38 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
